--- a/xlsx/法国大革命_intext.xlsx
+++ b/xlsx/法国大革命_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1284">
   <si>
     <t>法国大革命</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%80%E4%B8%96</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B_(1791%E2%80%931792)</t>
   </si>
   <si>
-    <t>法蘭西王國 (1791–1792)</t>
+    <t>法兰西王国 (1791–1792)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>執政府</t>
+    <t>执政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9B%BD</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國二月革命</t>
+    <t>法国二月革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%8C%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第二帝國</t>
+    <t>法兰西第二帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -275,15 +275,12 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%B3%95%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Template talk-法國歷史</t>
+    <t>Template talk-法国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -293,13 +290,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>法國歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -323,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%A5%97%E8%A4%B2%E6%BC%A2</t>
   </si>
   <si>
-    <t>無套褲漢</t>
+    <t>无套裤汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E3%80%81%E5%B9%B3%E7%AD%89%E3%80%81%E5%8D%9A%E6%84%9B</t>
   </si>
   <si>
-    <t>自由、平等、博愛</t>
+    <t>自由、平等、博爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E5%8D%81%E5%85%AD</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>啟蒙運動</t>
+    <t>启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1789%E5%B9%B4%E6%B3%95%E5%9B%BD%E4%B8%89%E7%BA%A7%E4%BC%9A%E8%AE%AE</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83%E5%A0%B4%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>網球場宣言</t>
+    <t>网球场宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E5%A6%87%E5%A5%B3%E5%A4%A7%E6%B8%B8%E8%A1%8C</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD</t>
   </si>
   <si>
-    <t>凡爾賽</t>
+    <t>凡尔赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>恐怖統治</t>
+    <t>恐怖统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E8%BF%9E%C2%B7%E7%BD%97%E4%BC%AF%E6%96%AF%E5%BA%87%E5%B0%94</t>
@@ -419,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>雅各賓俱樂部</t>
+    <t>雅各宾俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E5%88%B6%E5%BA%A6%E4%B8%8E%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Philp</t>
@@ -467,9 +461,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
@@ -503,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%8B%89_(%E8%B2%A8%E5%B9%A3)</t>
   </si>
   <si>
-    <t>里拉 (貨幣)</t>
+    <t>里拉 (货币)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%C2%B7%E5%AE%89%E6%89%98%E7%93%A6%E5%86%85%E7%89%B9</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%81%A9%E7%94%B7%E7%88%B5%E5%AE%89%C2%B7%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E9%9B%85%E5%85%8B%C2%B7%E6%9D%9C%E7%88%BE%E5%93%A5</t>
   </si>
   <si>
-    <t>勞恩男爵安·羅伯特·雅克·杜爾哥</t>
+    <t>劳恩男爵安·罗伯特·雅克·杜尔哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%86%85%E5%85%8B%E5%B0%94</t>
@@ -593,9 +584,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
   </si>
   <si>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>外國人</t>
+    <t>外国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E5%8C%96</t>
@@ -641,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%A8%85</t>
   </si>
   <si>
-    <t>地稅</t>
+    <t>地税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%96%E7%93%A6%E4%B9%8B%E6%97%A5</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E4%BA%BA%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>名人會議</t>
+    <t>名人会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BA%A7%E4%BC%9A%E8%AE%AE_(%E6%B3%95%E5%85%B0%E8%A5%BF)</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83_(%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD)</t>
   </si>
   <si>
-    <t>國民議會 (法國大革命)</t>
+    <t>国民议会 (法国大革命)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%B5%AE%E5%AE%AB</t>
@@ -701,9 +689,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E5%8D%A0%E5%B7%B4%E5%A3%AB%E5%BA%95%E7%9B%A3%E7%8B%B1</t>
   </si>
   <si>
-    <t>攻占巴士底監狱</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%8D%81%E4%B8%96_(%E6%B3%95%E5%85%B0%E8%A5%BF)</t>
   </si>
   <si>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E5%AF%86%E9%99%A2</t>
   </si>
   <si>
-    <t>樞密院</t>
+    <t>枢密院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%8D%AB%E5%85%B5</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%BE%B7%E4%BE%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>薩德侯爵</t>
+    <t>萨德侯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E7%88%B5%E6%B4%9B%E5%A5%88</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%91%89%E4%BE%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>拉法葉侯爵</t>
+    <t>拉法叶侯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E8%A5%BF%E5%B0%94%E4%B8%87%C2%B7%E5%B7%B4%E4%BC%8A</t>
@@ -779,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%81%90%E6%85%8C_(%E6%B3%95%E5%9C%8B)</t>
   </si>
   <si>
-    <t>大恐慌 (法國)</t>
+    <t>大恐慌 (法国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
@@ -851,9 +836,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
-    <t>天主教会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%A0%BC%E8%AF%BA%E6%B4%BE</t>
   </si>
   <si>
@@ -953,9 +935,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E5%AE%BE%E4%BF%B1%E4%B9%90%E9%83%A8</t>
   </si>
   <si>
-    <t>雅各宾俱乐部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%BE%B7%E5%88%A9%E5%9F%83%E4%BF%B1%E4%B9%90%E9%83%A8</t>
   </si>
   <si>
@@ -1043,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
   </si>
   <si>
-    <t>普選</t>
+    <t>普选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E7%B1%B3%E6%88%98%E5%BD%B9</t>
@@ -1157,39 +1136,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E9%A0%AD%E8%87%BA</t>
   </si>
   <si>
-    <t>斷頭臺</t>
+    <t>断头台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E9%A0%AD%E5%8F%B0</t>
   </si>
   <si>
-    <t>斷頭台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AC%E9%A6%96</t>
   </si>
   <si>
-    <t>斬首</t>
+    <t>斩首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%8E%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>保王黨</t>
+    <t>保王党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>協和廣場</t>
+    <t>协和广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%9C%88%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>熱月政變</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -1199,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%8F%8D%E6%B3%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>第二次反法聯盟</t>
+    <t>第二次反法联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BE%E6%9C%88</t>
@@ -1223,13 +1196,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E5%AE%A2%E6%95%99%E6%A2%9D%EF%BC%9A%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>刺客教條：大革命</t>
+    <t>刺客教条：大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%9A%A8%E5%8D%97%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立暨南國際大學</t>
+    <t>国立暨南国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A2%86%E5%9F%9F</t>
@@ -1259,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E7%AC%AC11%E7%89%88</t>
@@ -1403,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E5%AE%89%E5%85%A8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>綜合安全委員會</t>
+    <t>综合安全委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lev%C3%A9e_en_masse</t>
@@ -1451,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%85%8B%E6%96%AF%C2%B7%E5%B7%B4%E8%B2%9D%E5%A4%AB</t>
   </si>
   <si>
-    <t>格拉克斯·巴貝夫</t>
+    <t>格拉克斯·巴贝夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%9C%8818%E6%97%A5%E6%94%BF%E5%8F%98</t>
@@ -1481,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E5%AF%86%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>瓦爾密戰役</t>
+    <t>瓦尔密战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chouannerie</t>
@@ -1493,13 +1466,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E4%BB%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>旺代戰爭</t>
+    <t>旺代战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E7%99%BB%E6%88%B0%E5%BD%B9_(1792%E5%B9%B4)</t>
   </si>
   <si>
-    <t>凡爾登戰役 (1792年)</t>
+    <t>凡尔登战役 (1792年)</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Si%C3%A8ge_de_Thionville_(1792)</t>
@@ -1511,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8D%E6%94%BB%E9%87%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>圍攻里爾</t>
+    <t>围攻里尔</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Si%C3%A8ge_de_Mayence_(1792)</t>
@@ -1523,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E7%91%AA%E4%BD%A9%E6%96%AF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>傑瑪佩斯戰役</t>
+    <t>杰玛佩斯战役</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Si%C3%A8ge_de_Namur_(1792)</t>
@@ -1547,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%80%AB%E6%B8%AF%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>土倫港之役</t>
+    <t>土伦港之役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Neerwinden_(1793)</t>
@@ -1559,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%91%AA%E6%96%AF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>法瑪斯戰役</t>
+    <t>法玛斯战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capture_of_San_Pietro_and_Sant%27Antioco</t>
@@ -1643,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E5%A5%88%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>圖爾奈戰役</t>
+    <t>图尔奈战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Fleurus_(1794)</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E5%AF%AC%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>圖爾寬戰役</t>
+    <t>图尔宽战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Aldenhoven_(1794)</t>
@@ -1691,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E5%A5%87%E9%87%8C%E6%81%A9%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>卡斯奇里恩戰役</t>
+    <t>卡斯奇里恩战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Theiningen</t>
@@ -1781,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%B2%83%E5%88%A9%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>里沃利會戰</t>
+    <t>里沃利会战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Action_of_25_January_1797</t>
@@ -1805,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%B3%A2%E7%A6%8F%E7%88%BE%E7%B1%B3%E5%A5%A7%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>坎波福爾米奧條約</t>
+    <t>坎波福尔米奥条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/French_Revolutionary_Wars:_Campaigns_of_1798</t>
@@ -1865,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%A1%94%E5%8D%A1%E8%B5%AB%E6%88%B0%E5%BD%B9_(1799%E5%B9%B4)</t>
   </si>
   <si>
-    <t>史塔卡赫戰役 (1799年)</t>
+    <t>史塔卡赫战役 (1799年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Magnano</t>
@@ -1877,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E8%AB%BE%E6%88%B0%E5%BD%B9_(1799%E5%B9%B4)</t>
   </si>
   <si>
-    <t>卡薩諾戰役 (1799年)</t>
+    <t>卡萨诺战役 (1799年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/First_Battle_of_Z%C3%BCrich</t>
@@ -1889,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%9B%B7%E6%AF%94%E4%BA%9E%E6%88%B0%E5%BD%B9_(1799%E5%B9%B4)</t>
   </si>
   <si>
-    <t>特雷比亞戰役 (1799年)</t>
+    <t>特雷比亚战役 (1799年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Novi_(1799)</t>
@@ -1925,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%AD%A6%E8%A3%9D%E4%B8%AD%E7%AB%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>第二次武裝中立聯盟</t>
+    <t>第二次武装中立联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/French_Revolutionary_Wars:_Campaigns_of_1801</t>
@@ -1937,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%85%A7%E7%B6%AD%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>呂內維爾條約</t>
+    <t>吕内维尔条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Treaty_of_Florence</t>
@@ -1955,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%9C%A0%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>亞眠和約</t>
+    <t>亚眠和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E5%A5%A5%E7%83%AD%E7%BD%97</t>
@@ -1991,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%8A%A0%E7%9A%AE%E8%80%90%E7%89%B9</t>
   </si>
   <si>
-    <t>讓·史蒂芬·加皮耐特</t>
+    <t>让·史蒂芬·加皮耐特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E8%BE%BE%E6%AD%A6</t>
@@ -2057,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%BE%B7%C2%B7%E9%A6%AC%E7%88%BE%E8%92%99</t>
   </si>
   <si>
-    <t>奧古斯特·德·馬爾蒙</t>
+    <t>奥古斯特·德·马尔蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E9%A9%AC%E5%A1%9E%E7%BA%B3</t>
@@ -2105,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%C2%B7%E5%87%B1%E7%91%9F%E6%9E%97%C2%B7%E5%BE%B7%C2%B7%E4%BD%A9%E9%87%8C%E5%B0%BC%E7%BF%81</t>
   </si>
   <si>
-    <t>多米尼克·凱瑟林·德·佩里尼翁</t>
+    <t>多米尼克·凯瑟林·德·佩里尼翁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%B3%BD%E5%A4%AB%C2%B7%E6%B3%A2%E5%B0%BC%E4%BA%9A%E6%89%98%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
@@ -2123,7 +2096,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E9%A6%AC%E8%92%82%E5%8E%84-%E8%8F%B2%E5%88%A9%E8%B2%9D%E7%88%BE%C2%B7%E5%A1%9E%E5%BE%8B%E9%87%8C%E5%9F%83</t>
   </si>
   <si>
-    <t>讓-馬蒂厄-菲利貝爾·塞律里埃</t>
+    <t>让-马蒂厄-菲利贝尔·塞律里埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E8%AE%A9%C2%B7%E5%BE%B7%E8%BF%AA%E4%B9%8C%C2%B7%E8%8B%8F%E5%B0%94%E7%89%B9</t>
@@ -2237,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E5%B8%83%E9%87%8C%E7%B4%A2</t>
   </si>
   <si>
-    <t>雅克·皮埃爾·布里索</t>
+    <t>雅克·皮埃尔·布里索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%A4%9A%E5%A1%9E%E4%BE%AF%E7%88%B5</t>
@@ -2267,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E8%90%AC%C2%B7%E8%B7%AF%E6%98%93%C2%B7%E5%BE%B7%C2%B7%E8%81%96%E8%8C%B9%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>安東萬·路易·德·聖茹斯特</t>
+    <t>安东万·路易·德·圣茹斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%B4%9D%E5%B0%94%E6%B4%BE</t>
@@ -2357,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -2387,13 +2360,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏爾泰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B3%BD%E6%9B%B2</t>
   </si>
   <si>
-    <t>馬賽曲</t>
+    <t>马赛曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%BA%95%E6%97%A5</t>
@@ -2411,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%85%B1%E5%92%8C%E6%9B%86</t>
   </si>
   <si>
-    <t>法國共和曆</t>
+    <t>法国共和历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B3%E4%B8%8A%E5%B4%87%E6%8B%9C</t>
@@ -2483,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>基督教歷史</t>
+    <t>基督教历史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_the_Catholic_Church</t>
@@ -2519,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Catholic_Ecumenical_Councils</t>
@@ -2561,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
+    <t>耶稣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -2573,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%96%80%E5%BD%BC%E5%BE%97</t>
   </si>
   <si>
-    <t>西門彼得</t>
+    <t>西门彼得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97_(%E4%BD%BF%E5%BE%92)</t>
@@ -2585,13 +2555,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%AF%E5%BE%B7%E6%9C%9B</t>
   </si>
   <si>
-    <t>聖斯德望</t>
+    <t>圣斯德望</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0_(%E4%BD%BF%E5%BE%92)</t>
   </si>
   <si>
-    <t>約翰 (使徒)</t>
+    <t>约翰 (使徒)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BD%BF%E5%91%BD</t>
@@ -2603,13 +2573,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>耶路撒冷會議</t>
+    <t>耶路撒冷会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>使徒時代</t>
+    <t>使徒时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E6%95%99%E7%88%B6</t>
@@ -2621,7 +2591,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B%E7%9A%84%E4%BE%9D%E7%B4%8D%E7%88%B5</t>
   </si>
   <si>
-    <t>安條克的依納爵</t>
+    <t>安条克的依纳爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BB%BB%E7%BA%BD</t>
@@ -2633,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E7%B6%AD%E7%AC%83%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗維笃一世</t>
+    <t>教宗维笃一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%9C%9F%E8%89%AF</t>
@@ -2651,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗額我略一世</t>
+    <t>教宗额我略一世</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constantine_I_and_Christianity</t>
@@ -2663,7 +2633,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E7%83%8F%E6%95%99%E6%B4%BE</t>
   </si>
   <si>
-    <t>阿里烏教派</t>
+    <t>阿里乌教派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%89%B9%E6%9C%97%E5%9C%A3%E8%8B%A5%E6%9C%9B%E5%A4%A7%E6%AE%BF</t>
@@ -2675,7 +2645,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次尼西亞公會議</t>
+    <t>第一次尼西亚公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%A5%BF%E5%B0%94%E7%BB%B4%E6%96%AF%E7%89%B9%E4%B8%80%E4%B8%96</t>
@@ -2687,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次君士坦丁堡公會議</t>
+    <t>第一次君士坦丁堡公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%85%B8</t>
@@ -2711,13 +2681,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>以弗所公會議</t>
+    <t>以弗所公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%85%8B%E5%A2%A9%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>迦克墩公會議</t>
+    <t>迦克墩公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%9C%AC%E7%AC%83</t>
@@ -2729,7 +2699,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第二次君士坦丁堡公會議</t>
+    <t>第二次君士坦丁堡公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%9D%E6%88%91%E7%95%A5%E5%9C%A3%E6%AD%8C</t>
@@ -2747,7 +2717,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第三次君士坦丁堡公會議</t>
+    <t>第三次君士坦丁堡公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%B3%A2%E5%B0%BC%E6%B3%95%E7%88%B5</t>
@@ -2759,13 +2729,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%83%8F%E7%A0%B4%E5%A3%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>聖像破壞運動</t>
+    <t>圣像破坏运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第二次尼西亞公會議</t>
+    <t>第二次尼西亚公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%A4%A7%E5%B8%9D</t>
@@ -2789,19 +2759,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%B8%AD%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀中期</t>
+    <t>中世纪中期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E7%83%8F%E7%88%BE%E5%B7%B4%E8%AB%BE%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗烏爾巴諾二世</t>
+    <t>教宗乌尔巴诺二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BB%BB%E6%9D%83%E6%96%97%E4%BA%89</t>
@@ -2813,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%A8%93%E4%BB%A4</t>
   </si>
   <si>
-    <t>教宗訓令</t>
+    <t>教宗训令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%AF%BA%E8%8E%8E%E4%B9%8B%E8%A1%8C</t>
@@ -2837,13 +2807,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/First_Council_of_the_Lateran</t>
@@ -2861,13 +2831,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E6%8B%89%E7%89%B9%E6%9C%97%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第三次拉特朗公會議</t>
+    <t>第三次拉特朗公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E8%AB%BE%E5%A2%9E%E7%88%B5%E4%B8%89%E4%B8%96</t>
   </si>
   <si>
-    <t>依諾增爵三世</t>
+    <t>依诺增爵三世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%B8%9D%E5%9B%BD</t>
@@ -2879,13 +2849,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A5%BF%E8%A5%BF%E7%9A%84%E6%96%B9%E6%BF%9F%E5%90%84</t>
   </si>
   <si>
-    <t>亞西西的方濟各</t>
+    <t>亚西西的方济各</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E6%AC%A1%E6%8B%89%E7%89%B9%E6%9C%97%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第四次拉特朗公會議</t>
+    <t>第四次拉特朗公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%A3%81%E5%88%A4%E6%89%80</t>
@@ -2897,7 +2867,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E9%87%8C%E6%98%82%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次里昂公會議</t>
+    <t>第一次里昂公会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Second_Council_of_Lyon</t>
@@ -2909,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%AF%E7%88%BE%E7%B4%8D%E9%90%B8</t>
   </si>
   <si>
-    <t>聖伯爾納鐸</t>
+    <t>圣伯尔纳铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E9%82%A3</t>
@@ -2921,25 +2891,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%BE%8C%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀後期</t>
+    <t>中世纪后期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%8D%9A%E7%BE%A9%E5%85%AB%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗博義八世</t>
+    <t>教宗博义八世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>天主教會大分裂</t>
+    <t>天主教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B6%AD%E8%BE%B2%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>亞維農教廷</t>
+    <t>亚维农教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%85%8B%E9%9B%B7%E8%8A%92%E4%BA%94%E4%B8%96</t>
@@ -2951,37 +2921,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%83%E7%B4%8D%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維埃納公會議</t>
+    <t>维埃纳公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AE%BF%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>聖殿騎士團</t>
+    <t>圣殿骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8A%A0%E5%A4%A7%E5%88%A9%E7%B4%8D</t>
   </si>
   <si>
-    <t>聖加大利納</t>
+    <t>圣加大利纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A3%AB%E5%9D%A6%E6%96%AF%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>康士坦斯大公會議</t>
+    <t>康士坦斯大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>佛羅倫斯大公會議</t>
+    <t>佛罗伦斯大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗亞歷山大六世</t>
+    <t>教宗亚历山大六世</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fifth_Council_of_the_Lateran</t>
@@ -3005,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%8D%81%E4%BA%94%E6%9D%A1%E8%AE%BA%E7%BA%B2</t>
@@ -3047,7 +3017,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%88%A9%E5%A5%A7%E5%8D%81%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗利奧十世</t>
+    <t>教宗利奥十世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A</t>
@@ -3059,13 +3029,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B4%8D%E7%88%B5%C2%B7%E7%BE%85%E8%80%80%E6%8B%89</t>
   </si>
   <si>
-    <t>依納爵·羅耀拉</t>
+    <t>依纳爵·罗耀拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%C2%B7%E6%B2%99%E5%8B%BF%E7%95%A5</t>
   </si>
   <si>
-    <t>方濟·沙勿略</t>
+    <t>方济·沙勿略</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dissolution_of_the_Monasteries</t>
@@ -3077,25 +3047,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E6%89%98%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>特倫托會議</t>
+    <t>特伦托会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%BA%87%E8%AD%B7%E4%BA%94%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗庇護五世</t>
+    <t>教宗庇护五世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E5%88%A9%E9%A8%B0%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>脫利騰彌撒</t>
+    <t>脱利腾弥撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E6%88%91%E7%95%A5%E5%8D%81%E4%B8%89%E4%B8%96</t>
   </si>
   <si>
-    <t>額我略十三世</t>
+    <t>额我略十三世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
@@ -3113,7 +3083,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B6%AD%E6%8B%89%E7%9A%84%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>亞維拉的德蘭</t>
+    <t>亚维拉的德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%8B%A5%E6%9C%9B</t>
@@ -3131,7 +3101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E4%BC%AF%C2%B7%E7%99%BD%E6%95%8F</t>
   </si>
   <si>
-    <t>聖羅伯·白敏</t>
+    <t>圣罗伯·白敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E8%89%BA%E6%9C%AF</t>
@@ -3143,13 +3113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A3%AE%E5%8D%81%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>諾森十一世</t>
+    <t>诺森十一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E6%9C%AC%E7%AF%A4%E5%8D%81%E5%9B%9B%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗本篤十四世</t>
+    <t>教宗本笃十四世</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suppression_of_the_Society_of_Jesus</t>
@@ -3167,13 +3137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%BA%87%E8%AD%B7%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗庇護六世</t>
+    <t>教宗庇护六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%8E%9F%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>島原之亂</t>
+    <t>岛原之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%89%B9%E6%95%95%E4%BB%A4</t>
@@ -3203,7 +3173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>天主教大學</t>
+    <t>天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%8D%8E%E8%80%B6%E7%A8%A3%E4%BC%9A%E5%A3%AB%E5%88%97%E8%A1%A8</t>
@@ -3227,7 +3197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%95%99%E4%B8%89%E6%9F%B1%E7%9F%B3</t>
   </si>
   <si>
-    <t>聖教三柱石</t>
+    <t>圣教三柱石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%85%89%E5%90%AF</t>
@@ -3245,19 +3215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E4%B8%83%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護七世</t>
+    <t>庇护七世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1801%E5%B9%B4%E6%95%99%E5%8B%99%E5%B0%88%E7%B4%84</t>
   </si>
   <si>
-    <t>1801年教務專約</t>
+    <t>1801年教务专约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E4%B9%9D%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護九世</t>
+    <t>庇护九世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88%E5%9B%9A%E5%BE%92</t>
@@ -3281,7 +3251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%A2%B5%E8%92%82%E5%B2%A1%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次梵蒂岡大公會議</t>
+    <t>第一次梵蒂冈大公会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Infallibility_of_the_Church</t>
@@ -3317,19 +3287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十世</t>
+    <t>庇护十世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%9C%B0%E7%91%AA%E8%81%96%E6%AF%8D</t>
   </si>
   <si>
-    <t>花地瑪聖母</t>
+    <t>花地玛圣母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%92%82%E7%91%AA%E7%9A%84%E4%B8%89%E5%80%8B%E7%A7%98%E5%AF%86</t>
   </si>
   <si>
-    <t>法蒂瑪的三個秘密</t>
+    <t>法蒂玛的三个秘密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%89%B9%E5%85%B0%E6%9D%A1%E7%BA%A6</t>
@@ -3347,7 +3317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十二世</t>
+    <t>庇护十二世</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Persecutions_of_the_Catholic_Church_and_Pius_XII</t>
@@ -3377,13 +3347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%A2%B5%E8%92%82%E5%B2%A1%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第二次梵蒂岡大公會議</t>
+    <t>第二次梵蒂冈大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E7%B4%90%E6%9B%BC</t>
   </si>
   <si>
-    <t>約翰·亨利·紐曼</t>
+    <t>约翰·亨利·纽曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%AF%C2%B7%E6%98%86</t>
@@ -3395,13 +3365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%A5%BF%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>保祿六世</t>
+    <t>保禄六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A6%84%E4%B8%80%E4%B8%96</t>
@@ -3413,7 +3383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E6%97%A5</t>
@@ -3425,31 +3395,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%AF%A4%E5%8D%81%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>本篤十六世</t>
+    <t>本笃十六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E6%9C%AC%E7%AF%A4%E5%8D%81%E5%85%AD%E4%B8%96%E8%BE%AD%E8%81%B7</t>
   </si>
   <si>
-    <t>教宗本篤十六世辭職</t>
+    <t>教宗本笃十六世辞职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%8B%A5%E6%9C%9B%E4%BA%8C%E5%8D%81%E4%B8%89%E4%B8%96%E8%88%87%E6%95%99%E5%AE%97%E8%8B%A5%E6%9C%9B%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96%E5%B0%81%E8%81%96</t>
   </si>
   <si>
-    <t>教宗若望二十三世與教宗若望保祿二世封聖</t>
+    <t>教宗若望二十三世与教宗若望保禄二世封圣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>中國天主教</t>
+    <t>中国天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -3479,13 +3449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>朝鮮半島天主教</t>
+    <t>朝鲜半岛天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>台灣天主教</t>
+    <t>台湾天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
@@ -3497,7 +3467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%95%E8%98%AD%E5%85%8B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>西法蘭克王國</t>
+    <t>西法兰克王国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Napoleonic_era</t>
@@ -3509,27 +3479,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>自由法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%B8%8C%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>維希法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E5%85%B1%E5%92%8C%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>法蘭西共和國臨時政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
@@ -3593,7 +3554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>法國外交</t>
+    <t>法国外交</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Human_rights_in_France</t>
@@ -3605,7 +3566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>法國LGBT權益</t>
+    <t>法国LGBT权益</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Judiciary_of_France</t>
@@ -3629,7 +3590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
@@ -3641,13 +3602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>法國政黨</t>
+    <t>法国政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>法國經濟</t>
+    <t>法国经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Banking_in_France</t>
@@ -3719,7 +3680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%A7%80%E5%85%89</t>
   </si>
   <si>
-    <t>法國觀光</t>
+    <t>法国观光</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_trade_unions_in_France</t>
@@ -3731,7 +3692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>法國交通</t>
+    <t>法国交通</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crime_in_France</t>
@@ -3743,7 +3704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>法國人口</t>
+    <t>法国人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -3815,7 +3776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>法國飲食文化</t>
+    <t>法国饮食文化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/French_fashion</t>
@@ -3869,7 +3830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>法國體育</t>
+    <t>法国体育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Symbols_of_France</t>
@@ -3887,7 +3848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3905,7 +3866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -4482,7 +4443,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -5784,7 +5745,7 @@
         <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
         <v>26</v>
@@ -5810,10 +5771,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
         <v>89</v>
-      </c>
-      <c r="F54" t="s">
-        <v>90</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -5839,10 +5800,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5868,10 +5829,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -5897,10 +5858,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5926,10 +5887,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -5955,10 +5916,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5984,10 +5945,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
@@ -6013,10 +5974,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -6042,10 +6003,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -6071,10 +6032,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G63" t="n">
         <v>19</v>
@@ -6100,10 +6061,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -6129,10 +6090,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
@@ -6158,10 +6119,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G66" t="n">
         <v>9</v>
@@ -6187,10 +6148,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -6216,10 +6177,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -6245,10 +6206,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G69" t="n">
         <v>11</v>
@@ -6274,10 +6235,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G70" t="n">
         <v>30</v>
@@ -6303,10 +6264,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -6390,10 +6351,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -6419,10 +6380,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6448,10 +6409,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6477,10 +6438,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -6506,10 +6467,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G78" t="n">
         <v>8</v>
@@ -6564,10 +6525,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -6593,10 +6554,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -6622,10 +6583,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6651,10 +6612,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -6680,10 +6641,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6709,10 +6670,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
         <v>89</v>
-      </c>
-      <c r="F85" t="s">
-        <v>90</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -6738,10 +6699,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6767,10 +6728,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -6796,10 +6757,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -6825,10 +6786,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6854,10 +6815,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -6883,10 +6844,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6912,10 +6873,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6941,10 +6902,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6970,10 +6931,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6999,10 +6960,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -7028,10 +6989,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -7057,10 +7018,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -7115,10 +7076,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -7144,10 +7105,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -7173,10 +7134,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -7202,10 +7163,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F102" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -7231,10 +7192,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G103" t="n">
         <v>27</v>
@@ -7260,10 +7221,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -7289,10 +7250,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F105" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7318,10 +7279,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7347,10 +7308,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -7376,10 +7337,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -7405,10 +7366,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F109" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G109" t="n">
         <v>19</v>
@@ -7434,10 +7395,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7463,10 +7424,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F111" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -7492,10 +7453,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F112" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7521,10 +7482,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F113" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7550,10 +7511,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F114" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7579,10 +7540,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F115" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7608,10 +7569,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -7637,10 +7598,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7666,10 +7627,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F118" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7695,10 +7656,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F119" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7724,10 +7685,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F120" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7753,10 +7714,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F121" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G121" t="n">
         <v>10</v>
@@ -7782,10 +7743,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7811,10 +7772,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7840,10 +7801,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G124" t="n">
         <v>18</v>
@@ -7869,10 +7830,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F125" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -7898,10 +7859,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F126" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7927,10 +7888,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F127" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7956,10 +7917,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G128" t="n">
         <v>14</v>
@@ -7985,10 +7946,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F129" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -8014,10 +7975,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F130" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -8043,10 +8004,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
@@ -8072,10 +8033,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F132" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -8101,10 +8062,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F133" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8130,10 +8091,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F134" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8159,10 +8120,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F135" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -8188,10 +8149,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F136" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8217,10 +8178,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F137" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -8246,10 +8207,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F138" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8275,10 +8236,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F139" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -8304,10 +8265,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8333,10 +8294,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F141" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8362,10 +8323,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F142" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8391,10 +8352,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F143" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8420,10 +8381,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F144" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8449,10 +8410,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F145" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8478,10 +8439,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8507,10 +8468,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F147" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -8536,10 +8497,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8565,10 +8526,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F149" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8594,10 +8555,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F150" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8623,10 +8584,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F151" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8652,10 +8613,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8681,10 +8642,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F153" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -8710,10 +8671,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F154" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8739,10 +8700,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8768,10 +8729,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8797,10 +8758,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F157" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8826,10 +8787,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F158" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8855,10 +8816,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F159" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8884,10 +8845,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F160" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8913,10 +8874,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F161" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8942,10 +8903,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F162" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8971,10 +8932,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G163" t="n">
         <v>6</v>
@@ -9000,10 +8961,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F164" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="G164" t="n">
         <v>13</v>
@@ -9029,10 +8990,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F165" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -9058,10 +9019,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F166" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -9087,10 +9048,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F167" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9116,10 +9077,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F168" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -9145,10 +9106,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F169" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -9174,10 +9135,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F170" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9203,10 +9164,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F171" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9232,10 +9193,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F172" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -9261,10 +9222,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F173" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9290,10 +9251,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F174" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9319,10 +9280,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F175" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9348,10 +9309,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F176" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9377,10 +9338,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F177" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9406,10 +9367,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F178" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -9435,10 +9396,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9464,10 +9425,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F180" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9493,10 +9454,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F181" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9522,10 +9483,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F182" t="s">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9551,10 +9512,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F183" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9580,10 +9541,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F184" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9609,10 +9570,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F185" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9638,10 +9599,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F186" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9667,10 +9628,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F187" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G187" t="n">
         <v>28</v>
@@ -9696,10 +9657,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F188" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9725,10 +9686,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F189" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9754,10 +9715,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F190" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G190" t="n">
         <v>8</v>
@@ -9783,10 +9744,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F191" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -9812,10 +9773,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F192" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9841,10 +9802,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F193" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9870,10 +9831,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F194" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G194" t="n">
         <v>12</v>
@@ -9899,10 +9860,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F195" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -9928,10 +9889,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F196" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9957,10 +9918,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F197" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -9986,10 +9947,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F198" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G198" t="n">
         <v>27</v>
@@ -10015,10 +9976,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F199" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G199" t="n">
         <v>9</v>
@@ -10044,10 +10005,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F200" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -10073,10 +10034,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F201" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10102,10 +10063,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F202" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10131,10 +10092,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F203" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -10160,10 +10121,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F204" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10189,10 +10150,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F205" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -10218,10 +10179,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F206" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -10247,10 +10208,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F207" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10276,10 +10237,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F208" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10305,10 +10266,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F209" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -10334,10 +10295,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F210" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10363,10 +10324,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F211" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -10392,10 +10353,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F212" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -10421,10 +10382,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F213" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -10450,10 +10411,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F214" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -10479,10 +10440,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F215" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10508,10 +10469,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F216" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -10537,10 +10498,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F217" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10566,10 +10527,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F218" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10595,10 +10556,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F219" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10624,10 +10585,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F220" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G220" t="n">
         <v>9</v>
@@ -10653,10 +10614,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F221" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -10682,10 +10643,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F222" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -10711,10 +10672,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F223" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G223" t="n">
         <v>5</v>
@@ -10740,10 +10701,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F224" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10769,10 +10730,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F225" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10798,10 +10759,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F226" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10827,10 +10788,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F227" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10856,10 +10817,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F228" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10885,10 +10846,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F229" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10914,10 +10875,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F230" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10943,10 +10904,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F231" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -10972,10 +10933,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F232" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -11001,10 +10962,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F233" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11030,10 +10991,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F234" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11059,10 +11020,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F235" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11088,10 +11049,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F236" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -11117,10 +11078,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F237" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11146,10 +11107,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F238" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11175,10 +11136,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F239" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11204,10 +11165,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F240" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11233,10 +11194,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F241" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11262,10 +11223,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F242" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G242" t="n">
         <v>41</v>
@@ -11291,10 +11252,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F243" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G243" t="n">
         <v>19</v>
@@ -11320,10 +11281,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F244" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11349,10 +11310,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F245" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -11436,10 +11397,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F248" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11465,10 +11426,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F249" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11494,10 +11455,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F250" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11523,10 +11484,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F251" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11552,10 +11513,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F252" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11581,10 +11542,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F253" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11610,10 +11571,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F254" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11639,10 +11600,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F255" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11668,10 +11629,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F256" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11697,10 +11658,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F257" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11726,10 +11687,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F258" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11755,10 +11716,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F259" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11784,10 +11745,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F260" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11813,10 +11774,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F261" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11842,10 +11803,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F262" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11871,10 +11832,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F263" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11900,10 +11861,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F264" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11929,10 +11890,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F265" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11958,10 +11919,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F266" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11987,10 +11948,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F267" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -12045,10 +12006,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F269" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -12074,10 +12035,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F270" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12103,10 +12064,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F271" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12132,10 +12093,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F272" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -12161,10 +12122,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F273" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12190,10 +12151,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F274" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12219,10 +12180,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F275" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -12248,10 +12209,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F276" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12277,10 +12238,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F277" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12306,10 +12267,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F278" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12335,10 +12296,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F279" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12364,10 +12325,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F280" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -12393,10 +12354,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F281" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12422,10 +12383,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F282" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12451,10 +12412,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F283" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12480,10 +12441,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F284" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12509,10 +12470,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F285" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12538,10 +12499,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F286" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12567,10 +12528,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F287" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12596,10 +12557,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F288" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12625,10 +12586,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F289" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12654,10 +12615,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F290" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12683,10 +12644,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F291" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12712,10 +12673,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F292" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12741,10 +12702,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F293" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12770,10 +12731,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F294" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12799,10 +12760,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F295" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12828,10 +12789,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F296" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12857,10 +12818,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F297" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12886,10 +12847,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F298" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12915,10 +12876,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F299" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12944,10 +12905,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F300" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12973,10 +12934,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F301" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -13002,10 +12963,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F302" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -13031,10 +12992,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F303" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -13060,10 +13021,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F304" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -13089,10 +13050,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F305" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -13118,10 +13079,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F306" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -13147,10 +13108,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F307" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13176,10 +13137,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F308" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13205,10 +13166,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F309" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13234,10 +13195,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F310" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13263,10 +13224,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F311" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13292,10 +13253,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F312" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13321,10 +13282,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F313" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13350,10 +13311,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F314" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13379,10 +13340,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F315" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13408,10 +13369,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F316" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13437,10 +13398,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F317" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13466,10 +13427,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F318" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13495,10 +13456,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F319" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13524,10 +13485,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13553,10 +13514,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F321" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13582,10 +13543,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F322" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13611,10 +13572,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F323" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13640,10 +13601,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F324" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13669,10 +13630,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F325" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13698,10 +13659,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F326" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13727,10 +13688,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F327" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13756,10 +13717,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F328" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13785,10 +13746,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F329" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13814,10 +13775,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F330" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13843,10 +13804,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F331" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13872,10 +13833,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F332" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13901,10 +13862,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F333" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13930,10 +13891,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F334" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13959,10 +13920,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F335" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13988,10 +13949,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F336" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14017,10 +13978,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F337" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -14046,10 +14007,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F338" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14075,10 +14036,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F339" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14104,10 +14065,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F340" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14133,10 +14094,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F341" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14162,10 +14123,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F342" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14191,10 +14152,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F343" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14220,10 +14181,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F344" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14249,10 +14210,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F345" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14278,10 +14239,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F346" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14307,10 +14268,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F347" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14336,10 +14297,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F348" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14365,10 +14326,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F349" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14394,10 +14355,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F350" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14423,10 +14384,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F351" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14452,10 +14413,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F352" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14481,10 +14442,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F353" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14510,10 +14471,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F354" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14539,10 +14500,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F355" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14568,10 +14529,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F356" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14597,10 +14558,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F357" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14626,10 +14587,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F358" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14655,10 +14616,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F359" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14684,10 +14645,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F360" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14713,10 +14674,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F361" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14742,10 +14703,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F362" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14771,10 +14732,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F363" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14800,10 +14761,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F364" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14829,10 +14790,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F365" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14858,10 +14819,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F366" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14887,10 +14848,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F367" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14916,10 +14877,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F368" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14945,10 +14906,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F369" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14974,10 +14935,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F370" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -15003,10 +14964,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F371" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15032,10 +14993,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F372" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15061,10 +15022,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F373" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15090,10 +15051,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F374" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15119,10 +15080,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F375" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15148,10 +15109,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F376" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15177,10 +15138,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F377" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15206,10 +15167,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F378" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15235,10 +15196,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F379" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15264,10 +15225,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F380" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15293,10 +15254,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F381" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15322,10 +15283,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F382" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15351,10 +15312,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F383" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15380,10 +15341,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F384" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15409,10 +15370,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F385" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15438,10 +15399,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F386" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15467,10 +15428,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F387" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15496,10 +15457,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F388" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15525,10 +15486,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F389" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15554,10 +15515,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F390" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15583,10 +15544,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F391" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15612,10 +15573,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F392" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15641,10 +15602,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F393" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15670,10 +15631,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F394" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15699,10 +15660,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F395" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15728,10 +15689,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F396" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15757,10 +15718,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F397" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15786,10 +15747,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F398" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15815,10 +15776,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F399" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15844,10 +15805,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F400" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15873,10 +15834,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F401" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15902,10 +15863,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F402" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15931,10 +15892,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F403" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15960,10 +15921,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F404" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15989,10 +15950,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F405" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16018,10 +15979,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F406" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16047,10 +16008,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F407" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16076,10 +16037,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F408" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16105,10 +16066,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F409" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16134,10 +16095,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F410" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16163,10 +16124,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F411" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16192,10 +16153,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F412" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16221,10 +16182,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F413" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16250,10 +16211,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F414" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16279,10 +16240,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F415" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16308,10 +16269,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F416" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16337,10 +16298,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F417" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16366,10 +16327,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F418" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16395,10 +16356,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F419" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16424,10 +16385,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F420" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16453,10 +16414,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F421" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16482,10 +16443,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F422" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16511,10 +16472,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F423" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16540,10 +16501,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F424" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -16569,10 +16530,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F425" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16598,10 +16559,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F426" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16627,10 +16588,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F427" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16656,10 +16617,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F428" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16685,10 +16646,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F429" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -16714,10 +16675,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F430" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16743,10 +16704,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F431" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16772,10 +16733,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F432" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16830,10 +16791,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F434" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16859,10 +16820,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F435" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16888,10 +16849,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F436" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16917,10 +16878,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F437" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16946,10 +16907,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F438" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16975,10 +16936,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F439" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17004,10 +16965,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F440" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17033,10 +16994,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F441" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17091,10 +17052,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F443" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17120,10 +17081,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F444" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17149,10 +17110,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F445" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17178,10 +17139,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F446" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17207,10 +17168,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F447" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17236,10 +17197,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F448" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17265,10 +17226,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F449" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17294,10 +17255,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F450" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17323,10 +17284,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F451" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17352,10 +17313,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F452" t="s">
-        <v>790</v>
+        <v>278</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17381,10 +17342,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F453" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17410,10 +17371,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F454" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17439,10 +17400,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F455" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17468,10 +17429,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F456" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17497,10 +17458,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F457" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17526,10 +17487,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F458" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17555,10 +17516,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F459" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17584,10 +17545,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F460" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17613,10 +17574,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F461" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17642,10 +17603,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F462" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17671,10 +17632,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F463" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17700,10 +17661,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F464" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17729,10 +17690,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F465" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17758,10 +17719,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F466" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17787,10 +17748,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F467" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17816,10 +17777,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F468" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17845,10 +17806,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F469" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17874,10 +17835,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F470" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17903,10 +17864,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F471" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17932,10 +17893,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F472" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17961,10 +17922,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F473" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17990,10 +17951,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F474" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18019,10 +17980,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F475" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G475" t="n">
         <v>6</v>
@@ -18048,10 +18009,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F476" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18077,10 +18038,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F477" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18106,10 +18067,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F478" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G478" t="n">
         <v>2</v>
@@ -18135,10 +18096,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F479" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18164,10 +18125,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F480" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18193,10 +18154,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F481" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18222,10 +18183,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F482" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18251,10 +18212,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F483" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18280,10 +18241,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F484" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18309,10 +18270,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F485" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18338,10 +18299,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F486" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18367,10 +18328,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F487" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18396,10 +18357,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F488" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18425,10 +18386,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F489" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18454,10 +18415,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F490" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18483,10 +18444,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F491" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18512,10 +18473,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F492" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18541,10 +18502,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F493" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18570,10 +18531,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F494" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18599,10 +18560,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F495" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18628,10 +18589,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F496" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18657,10 +18618,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F497" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18686,10 +18647,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F498" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18715,10 +18676,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18744,10 +18705,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F500" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18773,10 +18734,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F501" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18802,10 +18763,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F502" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18831,10 +18792,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F503" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18860,10 +18821,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F504" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18889,10 +18850,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F505" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18918,10 +18879,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F506" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18947,10 +18908,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F507" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18976,10 +18937,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F508" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19005,10 +18966,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F509" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19034,10 +18995,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F510" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19063,10 +19024,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F511" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19092,10 +19053,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F512" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19121,10 +19082,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F513" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19150,10 +19111,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F514" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19179,10 +19140,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F515" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19208,10 +19169,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F516" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19237,10 +19198,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F517" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19266,10 +19227,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="F518" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19295,10 +19256,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="F519" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19324,10 +19285,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F520" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19353,10 +19314,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F521" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19382,10 +19343,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F522" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19411,10 +19372,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F523" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19440,10 +19401,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F524" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19469,10 +19430,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F525" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19498,10 +19459,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F526" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19527,10 +19488,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F527" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19556,10 +19517,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="F528" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19585,10 +19546,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="F529" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19614,10 +19575,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="F530" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19643,10 +19604,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F531" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19672,10 +19633,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="F532" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19701,10 +19662,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F533" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19730,10 +19691,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="F534" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19759,10 +19720,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="F535" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19788,10 +19749,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="F536" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19817,10 +19778,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="F537" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19846,10 +19807,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="F538" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19875,10 +19836,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F539" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19904,10 +19865,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="F540" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19933,10 +19894,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="F541" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19962,10 +19923,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="F542" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19991,10 +19952,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F543" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20020,10 +19981,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="F544" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20049,10 +20010,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="F545" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20078,10 +20039,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F546" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20107,10 +20068,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F547" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20136,10 +20097,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="F548" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20165,10 +20126,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="F549" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20194,10 +20155,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F550" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20223,10 +20184,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F551" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20252,10 +20213,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F552" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20281,10 +20242,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F553" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20310,10 +20271,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F554" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="G554" t="n">
         <v>3</v>
@@ -20339,10 +20300,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F555" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20368,10 +20329,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F556" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20397,10 +20358,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="F557" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20426,10 +20387,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F558" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20455,10 +20416,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F559" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20484,10 +20445,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F560" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20513,10 +20474,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="F561" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20542,10 +20503,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F562" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20571,10 +20532,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F563" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20600,10 +20561,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F564" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -20629,10 +20590,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="F565" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20658,10 +20619,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F566" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20687,10 +20648,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="F567" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20716,10 +20677,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F568" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20745,10 +20706,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F569" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20774,10 +20735,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F570" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20803,10 +20764,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="F571" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20832,10 +20793,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="F572" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20861,10 +20822,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="F573" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20890,10 +20851,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="F574" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20919,10 +20880,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F575" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20948,10 +20909,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="F576" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20977,10 +20938,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="F577" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21006,10 +20967,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="F578" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21035,10 +20996,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="F579" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21064,10 +21025,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="F580" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21093,10 +21054,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="F581" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21122,10 +21083,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="F582" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21151,10 +21112,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="F583" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21180,10 +21141,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="F584" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21209,10 +21170,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="F585" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21238,10 +21199,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="F586" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21267,10 +21228,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="F587" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21296,10 +21257,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="F588" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21325,10 +21286,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F589" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G589" t="n">
         <v>2</v>
@@ -21354,10 +21315,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="F590" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21383,10 +21344,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F591" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G591" t="n">
         <v>3</v>
@@ -21412,10 +21373,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="F592" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21441,10 +21402,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F593" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21470,10 +21431,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="F594" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21499,10 +21460,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="F595" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21528,10 +21489,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="F596" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21557,10 +21518,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="F597" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21586,10 +21547,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="F598" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21615,10 +21576,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="F599" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21644,10 +21605,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="F600" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21673,10 +21634,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="F601" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21702,10 +21663,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="F602" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21731,10 +21692,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="F603" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21760,10 +21721,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="F604" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21789,10 +21750,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="F605" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21818,10 +21779,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="F606" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21847,10 +21808,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="F607" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21876,10 +21837,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="F608" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21905,10 +21866,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="F609" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21934,10 +21895,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="F610" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21963,10 +21924,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="F611" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21992,10 +21953,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="F612" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22021,10 +21982,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="F613" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22050,10 +22011,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="F614" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22079,10 +22040,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="F615" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22108,10 +22069,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="F616" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -22137,10 +22098,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="F617" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22166,10 +22127,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F618" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22195,10 +22156,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F619" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22224,10 +22185,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="F620" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22253,10 +22214,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="F621" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22282,10 +22243,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="F622" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22311,10 +22272,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="F623" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22340,10 +22301,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="F624" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22369,10 +22330,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="F625" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22398,10 +22359,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="F626" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22427,10 +22388,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="F627" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22456,10 +22417,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="F628" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22485,10 +22446,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F629" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22514,10 +22475,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="F630" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22543,10 +22504,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="F631" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22572,10 +22533,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="F632" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22601,10 +22562,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="F633" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22630,10 +22591,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="F634" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22659,10 +22620,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="F635" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22688,10 +22649,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="F636" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22717,10 +22678,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="F637" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22746,10 +22707,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="F638" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22775,10 +22736,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="F639" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="G639" t="n">
         <v>2</v>
@@ -22804,10 +22765,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F640" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G640" t="n">
         <v>10</v>
@@ -22833,10 +22794,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="F641" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="G641" t="n">
         <v>2</v>
@@ -22920,10 +22881,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="F644" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22949,10 +22910,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="F645" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22978,10 +22939,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="F646" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23036,10 +22997,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="F648" t="s">
-        <v>1166</v>
+        <v>76</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23065,10 +23026,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="F649" t="s">
-        <v>1168</v>
+        <v>78</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23094,10 +23055,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="F650" t="s">
-        <v>1170</v>
+        <v>80</v>
       </c>
       <c r="G650" t="n">
         <v>3</v>
@@ -23123,10 +23084,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="F651" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23152,10 +23113,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="F652" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23181,10 +23142,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="F653" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="G653" t="n">
         <v>5</v>
@@ -23239,10 +23200,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="F655" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23268,10 +23229,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="F656" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23297,10 +23258,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="F657" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23326,10 +23287,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="F658" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23355,10 +23316,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="F659" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="G659" t="n">
         <v>12</v>
@@ -23384,10 +23345,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="F660" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23413,10 +23374,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="F661" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23442,10 +23403,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="F662" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23471,10 +23432,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="F663" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="G663" t="n">
         <v>29</v>
@@ -23500,10 +23461,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="F664" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23529,10 +23490,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="F665" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23558,10 +23519,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="F666" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23587,10 +23548,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="F667" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23616,10 +23577,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="F668" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23645,10 +23606,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="F669" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="G669" t="n">
         <v>6</v>
@@ -23674,10 +23635,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="F670" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="G670" t="n">
         <v>43</v>
@@ -23703,10 +23664,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="F671" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23732,10 +23693,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="F672" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23761,10 +23722,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="F673" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23790,10 +23751,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="F674" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23819,10 +23780,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="F675" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23848,10 +23809,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="F676" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23877,10 +23838,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="F677" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -23906,13 +23867,13 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="F678" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="G678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -23935,10 +23896,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="F679" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -23964,13 +23925,13 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="F680" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="G680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -23993,10 +23954,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="F681" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24022,10 +23983,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="F682" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -24051,10 +24012,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="F683" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -24080,10 +24041,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="F684" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24109,10 +24070,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="F685" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24138,10 +24099,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="F686" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24167,10 +24128,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="F687" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24196,10 +24157,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="F688" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24225,10 +24186,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="F689" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="G689" t="n">
         <v>2</v>
@@ -24254,10 +24215,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="F690" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="G690" t="n">
         <v>2</v>
@@ -24283,10 +24244,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="F691" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24312,10 +24273,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="F692" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24341,10 +24302,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="F693" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24370,10 +24331,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="F694" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24399,10 +24360,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="F695" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24428,10 +24389,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="F696" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24457,10 +24418,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="F697" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -24486,10 +24447,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="F698" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -24515,10 +24476,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="F699" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -24544,10 +24505,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="F700" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -24573,10 +24534,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="F701" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -24602,10 +24563,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="F702" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -24631,10 +24592,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="F703" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24660,10 +24621,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="F704" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -24689,10 +24650,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="F705" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -24718,10 +24679,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="F706" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -24747,10 +24708,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="F707" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -24776,10 +24737,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="F708" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -24805,10 +24766,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="F709" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -24834,10 +24795,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="F710" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -24863,10 +24824,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="F711" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -24892,10 +24853,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="F712" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -24921,10 +24882,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="F713" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="G713" t="n">
         <v>3</v>
@@ -24950,10 +24911,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="F714" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -24979,10 +24940,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="F715" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25008,10 +24969,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="F716" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
